--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43855</v>
+      </c>
+      <c r="F7" s="2">
         <v>43764</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43673</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>814300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>737600</v>
+      </c>
+      <c r="F8" s="3">
         <v>884100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>884200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>833700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>748600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>848200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>799500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>731400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>655100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>756200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>780200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>786300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>701100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>799200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>680200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>633200</v>
+      </c>
+      <c r="F9" s="3">
         <v>724400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>720400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>701800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>633300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>687200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>642400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>599600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>540600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>600800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>606900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>621500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>561400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>615000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="F10" s="3">
         <v>159700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>163800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>131900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>115300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>161000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>157100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>131800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>114500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>155400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>173300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>164800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>139700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>184200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1022,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>40800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1024,67 +1063,79 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F15" s="3">
         <v>47400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>47200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>46300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>45900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>45500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>44800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>43400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>42400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>42700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>40200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>37400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>35700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>34500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>832700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>740900</v>
+      </c>
+      <c r="F17" s="3">
         <v>841600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>832700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>806700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>752700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>801500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>751700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>705200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>643400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>708100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>706700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>720200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>655300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>709700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>42500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>51500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>27000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>46700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>47800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>48100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>73500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>66100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>45800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>89500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F21" s="3">
         <v>91300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>102700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>79100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>43000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>95100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>96700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>77200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>54400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>96700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>119800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>108300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>82600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>125000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F22" s="3">
         <v>13100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>12900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>12200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>12400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>11300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>10200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>9100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F23" s="3">
         <v>30800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>42600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>20500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>38300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>41400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>23700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>44400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>69800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>61500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>37700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>81400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>12700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>26100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>22800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>30300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F26" s="3">
         <v>24200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>29900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>14300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-12100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>27800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>29900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>17200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>28800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>43700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>38800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>23700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F27" s="3">
         <v>24200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>29900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>14300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-12100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>27800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>29900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>17200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>28800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>43700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>38800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>23700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,26 +1770,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>32200</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>32200</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F33" s="3">
         <v>24200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>29900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>14300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>27800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>29900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>17200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>40100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>28800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>43700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>38800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>23700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F35" s="3">
         <v>24200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>29900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>14300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>27800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>29900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>17200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>40100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>28800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>43700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>38800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>23700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43855</v>
+      </c>
+      <c r="F38" s="2">
         <v>43764</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43673</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>643900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F41" s="3">
         <v>11800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>33600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>128300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>57900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>84000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>24500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>38600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>19400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>29500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>21700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,219 +2327,249 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1145800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1073600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1262900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1156800</v>
       </c>
-      <c r="F43" s="3">
-        <v>704300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>628800</v>
-      </c>
       <c r="H43" s="3">
+        <v>1001900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>844600</v>
+      </c>
+      <c r="J43" s="3">
         <v>1003300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>863500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>763100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>332600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>349600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>377300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>355100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>335500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>329800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>98300</v>
+      </c>
+      <c r="F44" s="3">
         <v>104900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>107400</v>
       </c>
-      <c r="F44" s="3">
-        <v>402800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>310200</v>
-      </c>
       <c r="H44" s="3">
+        <v>105200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>94400</v>
+      </c>
+      <c r="J44" s="3">
         <v>90800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>87800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>84300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>448500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>490400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>472500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>529100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>481600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>570000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F45" s="3">
         <v>32300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>31100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>37800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>29100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>33300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>30100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>39700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>28800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>50100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>46700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>41700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>45400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1930900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1411900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1307800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1178500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1096400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1148900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1005300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>936100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>904800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>893400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>938500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>950200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>888300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>966900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F47" s="3">
         <v>24200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>26200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>28400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>55200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>32000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2383,102 +2592,120 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>422100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>446200</v>
+      </c>
+      <c r="F48" s="3">
         <v>463000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>491700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>498400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>424800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>428300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>423700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>416300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>414800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>423300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>422100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>378400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>344100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>337700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>407200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>465700</v>
+      </c>
+      <c r="F49" s="3">
         <v>470900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>476200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>481500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>486900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>492300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>498100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>503900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>493200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>499100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>505300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>513100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>498200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>500300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F52" s="3">
         <v>25500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>26400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>24400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>34200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>31700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>25400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>26800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>28200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>36800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>33400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>34300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>35800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>33500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2812900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2217600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2395600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2328400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2211200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2097500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2133200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1952400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1883000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1841000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1852500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1899300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1876000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1766400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1838400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>194400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>119600</v>
+      </c>
+      <c r="F57" s="3">
         <v>129500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>140300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>138700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>119500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>134700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>125700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>112200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>92400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>109900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>133000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>119300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>99300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>114700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,234 +3073,264 @@
         <v>22500</v>
       </c>
       <c r="E58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G58" s="3">
         <v>16900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>11300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>31300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>28900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>26500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>24100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>21700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>14400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>18800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>17500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>180900</v>
+      </c>
+      <c r="F59" s="3">
         <v>212800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>199800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>191700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>159900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>169300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>153300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>134800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>140800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>149200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>163900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>155100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>145000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>179700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>428300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>323000</v>
+      </c>
+      <c r="F60" s="3">
         <v>364800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>357000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>341700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>285000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>304000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>310300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>275900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>259600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>283100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>318500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>288900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>263200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>312000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1363900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>844400</v>
+      </c>
+      <c r="F61" s="3">
         <v>970200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>932300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>867400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>867600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>867800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>727300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>731700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>733800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>736000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>738300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>811600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>740600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>774500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>186800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>181600</v>
+      </c>
+      <c r="F62" s="3">
         <v>180400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>185700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>181000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>140800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>144500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>131500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>128400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>122500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>143800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>170900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>152800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>147600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>138200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1979000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1515400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1474900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1390000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1293300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1316400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1169200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1136000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1116000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1162900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1227700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1253300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1151400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1224700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>796800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>829700</v>
+      </c>
+      <c r="F72" s="3">
         <v>840900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>816700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>786800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>772500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>784500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>756700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>726800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>709600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>674200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>652300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>608600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>600500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>588900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>833900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>868600</v>
+      </c>
+      <c r="F76" s="3">
         <v>880200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>853400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>821200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>804200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>816900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>783200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>747000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>725000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>689600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>671600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>622700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>615100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>613700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43855</v>
+      </c>
+      <c r="F80" s="2">
         <v>43764</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43673</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F81" s="3">
         <v>24200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>29900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>14300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>27800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>29900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>17200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>40100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>28800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>43700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>38800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>23700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F83" s="3">
         <v>47400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>47200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>46300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>45900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>45500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>44800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>43400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>42400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>42700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>40200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>37400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>35700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>34500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>191800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-24000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-53600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-56100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>142800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-55500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>24600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>103700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>56800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>149900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>42300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>105800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-41600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-38200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-45800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-37200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-47300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-46000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-34500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-56000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-58300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-36800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-32500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-38400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-33800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-42600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-39100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-45800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-28700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-48100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-59700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-78400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-32900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>522300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="F100" s="3">
         <v>37800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>65100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>95700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-15500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-22800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-71000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>25900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-65100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>67700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>589100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>42700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-95300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>105800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-33400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-26100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>59500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>19300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-10100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -1500,7 +1500,7 @@
         <v>2700</v>
       </c>
       <c r="E24" s="3">
-        <v>-4100</v>
+        <v>-5200</v>
       </c>
       <c r="F24" s="3">
         <v>6600</v>
@@ -1606,7 +1606,7 @@
         <v>-32400</v>
       </c>
       <c r="E26" s="3">
-        <v>-11200</v>
+        <v>-10100</v>
       </c>
       <c r="F26" s="3">
         <v>24200</v>
@@ -1659,7 +1659,7 @@
         <v>-32400</v>
       </c>
       <c r="E27" s="3">
-        <v>-11200</v>
+        <v>-10100</v>
       </c>
       <c r="F27" s="3">
         <v>24200</v>
@@ -1764,8 +1764,8 @@
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>-1100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44037</v>
+      </c>
+      <c r="F7" s="2">
         <v>43946</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43855</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43764</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43673</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43491</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43309</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43218</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43127</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42672</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>810300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>823900</v>
+      </c>
+      <c r="F8" s="3">
         <v>814300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>737600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>884100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>884200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>833700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>748600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>848200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>799500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>731400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>655100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>756200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>780200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>786300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>701100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>799200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>658400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>658000</v>
+      </c>
+      <c r="F9" s="3">
         <v>680200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>633200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>724400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>720400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>701800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>633300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>687200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>642400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>599600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>540600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>600800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>606900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>621500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>561400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>615000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>165900</v>
+      </c>
+      <c r="F10" s="3">
         <v>134100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>104400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>159700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>163800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>131900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>115300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>161000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>157100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>131800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>114500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>155400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>173300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>164800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>139700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>184200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,22 +1062,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
         <v>40800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1054,11 +1094,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1069,73 +1109,85 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F15" s="3">
         <v>45900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>46600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>47400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>47200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>46300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>45900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>45500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>44800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>43400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>42400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>42700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>40200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>37400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>35700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>34500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>769900</v>
+      </c>
+      <c r="F17" s="3">
         <v>832700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>740900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>841600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>832700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>806700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>752700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>801500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>751700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>705200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>643400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>708100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>706700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>720200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>655300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>709700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>42500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>51500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>27000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>46700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>47800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>48100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>73500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>66100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>45800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>89500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>101300</v>
+      </c>
+      <c r="F21" s="3">
         <v>28600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>43900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>91300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>102700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>79100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>43000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>95100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>96700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>77200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>54400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>96700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>119800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>108300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>82600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>125000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>12600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>13100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>12900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>12200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>12400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>10400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>9400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>9100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-29700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>30800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>42600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>20500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>38300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>41400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>23700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>69800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>61500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>37700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>81400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>12700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>6200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>10500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>15600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>26100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>22800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>30300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-32400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>24200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>29900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>14300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>27800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>29900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>28800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>43700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>38800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>23700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>51100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-32400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>24200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>29900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>14300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>27800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>29900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>17200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>28800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>43700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>38800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>23700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>51100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,46 +1872,52 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>-1100</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>-1100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>32200</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>32200</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-32400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>24200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>29900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>14300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-12100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>27800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>29900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>17200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>40100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>28800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>43700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>38800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>23700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>51100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-32400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>24200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>29900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>14300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-12100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>27800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>29900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>17200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>40100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>28800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>43700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>38800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>23700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>51100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44037</v>
+      </c>
+      <c r="F38" s="2">
         <v>43946</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43855</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43764</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43673</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43491</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43309</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43218</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43127</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42672</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F41" s="3">
         <v>643900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>54600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>33600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>128300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>57900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>84000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>38600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>19400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>29500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>21700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,249 +2513,279 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1144300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1156600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1145800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1073600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1262900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1156800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1001900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>844600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1003300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>863500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>763100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>332600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>349600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>377300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>355100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>335500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>329800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>77800</v>
+      </c>
+      <c r="F44" s="3">
         <v>92600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>98300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>104900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>107400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>105200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>94400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>90800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>87800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>84300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>448500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>490400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>472500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>529100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>481600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>570000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>49700</v>
+      </c>
+      <c r="F45" s="3">
         <v>48600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>31800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>32300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>31100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>37800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>29100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>33300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>30100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>30800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>39700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>28800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>50100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>46700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>41700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>45400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1265500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1306600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1930900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1258300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1411900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1307800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1178500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1096400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1148900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1005300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>936100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>904800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>893400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>938500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>950200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>888300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>966900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F47" s="3">
         <v>21300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>22700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>24200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>26200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>28400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>55200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>32000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2598,114 +2808,132 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>354200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>385500</v>
+      </c>
+      <c r="F48" s="3">
         <v>422100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>446200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>463000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>491700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>498400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>424800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>428300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>423700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>416300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>414800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>423300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>422100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>378400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>344100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>337700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>402000</v>
+      </c>
+      <c r="F49" s="3">
         <v>407200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>465700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>470900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>476200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>481500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>486900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>492300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>498100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>503900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>493200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>499100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>505300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>513100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>498200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>500300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F52" s="3">
         <v>31400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>24800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>25500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>26400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>24400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>34200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>31700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>25400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>26800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>28200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>36800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>33400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>34300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>35800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>33500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2065100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2144700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2812900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2217600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2395600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2328400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2211200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2097500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2133200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1952400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1883000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1841000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1852500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1899300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1876000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1766400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1838400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,66 +3271,74 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>183700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>177300</v>
+      </c>
+      <c r="F57" s="3">
         <v>194400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>119600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>129500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>140300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>138700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>119500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>134700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>125700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>112200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>92400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>109900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>133000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>119300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>99300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>114700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22500</v>
+        <v>78100</v>
       </c>
       <c r="E58" s="3">
         <v>22500</v>
@@ -3079,258 +3347,288 @@
         <v>22500</v>
       </c>
       <c r="G58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I58" s="3">
         <v>16900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>11300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>31300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>28900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>26500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>24100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>21700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>14400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>18800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>17500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>211500</v>
+      </c>
+      <c r="F59" s="3">
         <v>211400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>180900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>212800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>199800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>191700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>159900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>169300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>153300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>134800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>140800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>149200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>163900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>155100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>145000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>179700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>463700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>411300</v>
+      </c>
+      <c r="F60" s="3">
         <v>428300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>323000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>364800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>357000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>341700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>285000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>304000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>310300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>275900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>259600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>283100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>318500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>288900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>263200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>312000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>665500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1363900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>844400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>970200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>932300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>867400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>867600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>867800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>727300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>731700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>733800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>736000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>738300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>811600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>740600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>774500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>194100</v>
+      </c>
+      <c r="F62" s="3">
         <v>186800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>181600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>180400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>185700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>181000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>140800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>144500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>131500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>128400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>122500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>143800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>170900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>152800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>147600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>138200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1151900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1270900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1979000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1349000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1515400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1474900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1390000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1293300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1316400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1169200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1136000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1116000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1162900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1227700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1253300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1151400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1224700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>867800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>833800</v>
+      </c>
+      <c r="F72" s="3">
         <v>796800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>829700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>840900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>816700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>786800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>772500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>784500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>756700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>726800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>709600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>674200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>652300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>608600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>600500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>588900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>913100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>873700</v>
+      </c>
+      <c r="F76" s="3">
         <v>833900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>868600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>880200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>853400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>821200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>804200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>816900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>783200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>747000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>725000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>689600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>671600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>622700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>615100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>613700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44037</v>
+      </c>
+      <c r="F80" s="2">
         <v>43946</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43855</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43764</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43673</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43491</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43309</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43218</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43127</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42672</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-32400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>24200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>29900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>14300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-12100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>27800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>29900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>17200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>40100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>28800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>43700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>38800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>23700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>51100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F83" s="3">
         <v>45900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>46600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>47400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>47200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>46300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>45900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>45500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>44800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>43400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>42400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>42700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>40200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>37400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>35700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>34500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>82300</v>
+      </c>
+      <c r="F89" s="3">
         <v>85200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>191800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-24000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-53600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-56100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>142800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-55500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>24600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>103700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>56800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>149900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>42300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>105800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-41600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-20700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-18700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-17900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-38200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-45800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-37200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-47300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-46000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-34500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-31800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-56000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-66000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-58300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-36800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-40100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-14500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-32500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-38400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-33800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-42600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-39100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-45800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-28700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-48100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-59700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-32900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-38200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-701200</v>
+      </c>
+      <c r="F100" s="3">
         <v>522300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-133200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>37800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>65100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>95700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-15500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-22800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-71000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>25900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-65100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>67700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-621300</v>
+      </c>
+      <c r="F102" s="3">
         <v>589100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>42700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-95300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>105800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-33400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-26100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>59500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>19300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-12100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>44128</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44037</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43946</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43855</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43764</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43673</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>750700</v>
+      </c>
+      <c r="E8" s="3">
         <v>810300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>823900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>814300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>737600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>884100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>884200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>833700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>748600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>848200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>799500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>731400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>655100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>756200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>780200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>786300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>701100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>799200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>645500</v>
+      </c>
+      <c r="E9" s="3">
         <v>658400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>658000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>680200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>633200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>724400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>720400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>701800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>633300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>687200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>642400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>599600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>540600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>606900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>621500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>561400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>615000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E10" s="3">
         <v>151900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>165900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>134100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>159700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>163800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>131900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>161000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>157100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>114500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>155400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>173300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>164800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>139700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>184200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,25 +1085,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>40800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1100,8 +1120,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1115,79 +1135,85 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E15" s="3">
         <v>42300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>44100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>45900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>46600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>47400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>47200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>46300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>45900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>44800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>40200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>37400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>35700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>34500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E17" s="3">
         <v>763300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>769900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>832700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>740900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>841600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>832700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>806700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>752700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>801500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>751700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>705200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>643400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>708100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>706700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>720200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>655300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>709700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>47000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>51500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>73500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>45800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>89500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>1000</v>
       </c>
       <c r="U20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E21" s="3">
         <v>93000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>101300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>91300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>102700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>79100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>95100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>119800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>82600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>125000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,176 +1514,185 @@
         <v>4700</v>
       </c>
       <c r="E22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9700</v>
       </c>
       <c r="Q22" s="3">
         <v>9700</v>
       </c>
       <c r="R22" s="3">
+        <v>9700</v>
+      </c>
+      <c r="S22" s="3">
         <v>9400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>46000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>49300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>42600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>81400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>33900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>33900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-32400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,13 +1936,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>2600</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1892,11 +1953,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1904,11 +1965,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1916,11 +1977,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>32200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>-1000</v>
       </c>
       <c r="U32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>33900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-32400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>51100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>33900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-32400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>51100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>44128</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44037</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43946</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43855</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43764</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43673</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E41" s="3">
         <v>12000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>643900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>128300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1144300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1156600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1145800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1073600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1262900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1156800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1001900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>844600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1003300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>863500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>763100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>332600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>349600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>377300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>355100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>335500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>329800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2587,208 +2683,217 @@
         <v>70800</v>
       </c>
       <c r="E44" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F44" s="3">
         <v>77800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>104900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>107400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>94400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>90800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>87800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>84300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>448500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>490400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>472500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>529100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>481600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>570000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>46700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>41700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1168600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1265500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1306600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1930900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1258300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1411900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1307800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1178500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1096400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1148900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1005300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>936100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>904800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>893400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>938500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>950200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>888300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>966900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E47" s="3">
         <v>18600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32000</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>337100</v>
+      </c>
+      <c r="E48" s="3">
         <v>354200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>385500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>422100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>446200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>463000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>491700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>498400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>424800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>428300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>423700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>416300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>414800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>423300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>422100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>378400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>344100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>337700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>391800</v>
+      </c>
+      <c r="E49" s="3">
         <v>397000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>402000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>407200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>465700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>470900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>476200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>481500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>486900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>492300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>498100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>503900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>493200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>499100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>505300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>513100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>498200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>500300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E52" s="3">
         <v>29700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>35800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>33500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1944200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2065100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2144700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2812900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2217600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2395600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2328400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2211200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2097500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2133200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1952400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1883000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1841000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1852500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1899300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1876000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1766400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1838400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,75 +3403,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E57" s="3">
         <v>183700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>177300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>194400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>119600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>129500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>140300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>138700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>119500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>134700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>125700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>92400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>109900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>133000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>119300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>99300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>114700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E58" s="3">
         <v>78100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>22500</v>
       </c>
       <c r="F58" s="3">
         <v>22500</v>
@@ -3353,282 +3487,297 @@
         <v>22500</v>
       </c>
       <c r="I58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J58" s="3">
         <v>16900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>31300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>18800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E59" s="3">
         <v>201900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>211500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>211400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>180900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>212800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>199800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>191700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>159900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>169300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>153300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>134800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>140800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>149200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>163900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>155100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>145000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>179700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>448500</v>
+      </c>
+      <c r="E60" s="3">
         <v>463700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>411300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>428300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>323000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>364800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>357000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>341700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>285000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>304000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>310300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>275900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>259600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>283100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>318500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>288900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>263200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>312000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>501600</v>
+      </c>
+      <c r="E61" s="3">
         <v>490000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>665500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1363900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>844400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>970200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>932300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>867400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>867600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>867800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>727300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>731700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>733800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>736000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>738300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>811600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>740600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>774500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E62" s="3">
         <v>198200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>194100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>186800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>181600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>180400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>185700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>181000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>140800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>144500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>131500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>128400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>122500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>143800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>170900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>152800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>147600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>138200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1132900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1151900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1270900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1979000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1349000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1515400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1474900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1390000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1293300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1316400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1169200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1136000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1116000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1162900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1227700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1253300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1151400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1224700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>800600</v>
+      </c>
+      <c r="E72" s="3">
         <v>867800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>833800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>796800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>829700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>840900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>816700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>786800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>772500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>784500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>756700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>726800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>709600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>674200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>652300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>608600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>600500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>588900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>811300</v>
+      </c>
+      <c r="E76" s="3">
         <v>913100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>873700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>833900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>868600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>880200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>853400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>821200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>804200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>816900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>783200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>747000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>725000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>689600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>671600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>622700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>615100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>613700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>44128</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44037</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43946</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43855</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43764</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43673</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>33900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-32400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>51100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E83" s="3">
         <v>42300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>46600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E89" s="3">
         <v>111900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>82300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>85200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>191800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-53600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-56100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>142800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-55500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>103700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>149900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>105800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-41600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-78400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-119000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-701200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>522300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-133200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>37800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>95700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-71000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>25900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-65100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>67700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-621300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>589100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>42700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-95300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>105800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>59500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44128</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44037</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43946</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43855</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43764</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43673</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43491</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43309</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43218</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43127</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>727500</v>
+      </c>
+      <c r="E8" s="3">
         <v>750700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>810300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>823900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>814300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>737600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>884100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>884200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>833700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>748600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>848200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>799500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>731400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>655100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>756200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>780200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>786300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>701100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>799200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E9" s="3">
         <v>645500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>658400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>658000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>680200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>633200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>724400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>720400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>701800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>633300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>687200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>642400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>599600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>540600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>606900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>621500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>561400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>615000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E10" s="3">
         <v>105200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>151900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>165900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>134100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>104400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>159700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>163800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>131900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>161000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>157100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>131800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>114500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>155400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>173300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>164800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>139700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>184200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,28 +1105,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>40800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1123,8 +1143,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1138,82 +1158,88 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E15" s="3">
         <v>43600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>42300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>44100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>45900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>46600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>47400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>47200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>43400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>42700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>40200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>37400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>35700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>34500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>726200</v>
+      </c>
+      <c r="E17" s="3">
         <v>753000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>763300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>769900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>832700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>740900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>841600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>832700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>806700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>752700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>801500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>751700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>705200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>643400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>708100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>706700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>720200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>655300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>709700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>47000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>51500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>46700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>47800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>45800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>89500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1000</v>
       </c>
       <c r="U20" s="3">
         <v>1000</v>
       </c>
       <c r="V20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E21" s="3">
         <v>42000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>93000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>101300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>43900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>91300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>102700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>79100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>95100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>96700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>77200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>96700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>119800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>82600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>125000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="E22" s="3">
         <v>4700</v>
       </c>
       <c r="F22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9700</v>
       </c>
       <c r="R22" s="3">
         <v>9700</v>
       </c>
       <c r="S22" s="3">
+        <v>9700</v>
+      </c>
+      <c r="T22" s="3">
         <v>9400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>49300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>30800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>37700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>81400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>29900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>51100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>29900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,16 +1997,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>2600</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1956,11 +2017,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1968,11 +2029,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1980,11 +2041,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>32200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-1000</v>
       </c>
       <c r="U32" s="3">
         <v>-1000</v>
       </c>
       <c r="V32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>51100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>51100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44128</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44037</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43946</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43855</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43764</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43673</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43582</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43491</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43400</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43309</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43218</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43127</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>330600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>643900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>128300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,291 +2702,306 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1048500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1057000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1144300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1156600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1145800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1073600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1262900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1156800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1001900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>844600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1003300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>863500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>763100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>332600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>349600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>377300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>355100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>335500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>329800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>70800</v>
+        <v>71100</v>
       </c>
       <c r="E44" s="3">
         <v>70800</v>
       </c>
       <c r="F44" s="3">
+        <v>70800</v>
+      </c>
+      <c r="G44" s="3">
         <v>77800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>92600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>98300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>104900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>107400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>105200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>94400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>90800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>87800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>84300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>448500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>490400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>472500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>529100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>481600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>570000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E45" s="3">
         <v>29000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>46700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1498100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1168600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1265500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1306600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1930900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1258300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1411900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1307800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1178500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1096400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1148900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1005300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>936100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>904800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>893400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>938500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>950200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>888300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>966900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E47" s="3">
         <v>17600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32000</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E48" s="3">
         <v>337100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>354200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>385500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>422100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>446200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>463000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>491700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>498400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>424800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>428300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>423700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>416300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>414800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>423300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>422100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>378400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>344100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>337700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>387100</v>
+      </c>
+      <c r="E49" s="3">
         <v>391800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>397000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>402000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>407200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>465700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>470900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>476200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>481500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>486900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>492300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>498100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>503900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>493200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>499100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>505300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>513100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>498200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>500300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E52" s="3">
         <v>29000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>35800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2263000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1944200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2065100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2144700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2812900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2217600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2395600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2328400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2211200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2097500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2133200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1952400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1883000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1841000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1852500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1899300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1876000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1766400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1838400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,81 +3534,85 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E57" s="3">
         <v>159000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>183700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>177300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>194400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>119600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>129500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>140300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>138700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>119500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>134700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>125700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>112200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>92400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>109900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>133000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>119300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>99300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>114700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E58" s="3">
         <v>81700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>78100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>22500</v>
       </c>
       <c r="G58" s="3">
         <v>22500</v>
@@ -3490,294 +3624,309 @@
         <v>22500</v>
       </c>
       <c r="J58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K58" s="3">
         <v>16900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>31300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E59" s="3">
         <v>207800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>201900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>211500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>211400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>180900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>212800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>199800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>169300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>153300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>134800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>140800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>149200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>163900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>155100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>145000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>179700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>436100</v>
+      </c>
+      <c r="E60" s="3">
         <v>448500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>463700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>411300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>428300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>323000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>364800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>357000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>341700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>285000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>304000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>310300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>275900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>259600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>283100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>318500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>288900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>263200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>312000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>835200</v>
+      </c>
+      <c r="E61" s="3">
         <v>501600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>490000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>665500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1363900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>844400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>970200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>932300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>867400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>867600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>867800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>727300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>731700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>733800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>736000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>738300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>811600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>740600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>774500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E62" s="3">
         <v>182800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>198200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>194100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>186800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>181600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>180400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>185700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>181000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>140800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>144500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>131500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>128400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>122500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>143800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>170900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>152800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>147600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>138200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1453100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1132900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1151900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1270900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1979000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1349000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1515400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1474900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1390000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1293300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1316400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1169200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1136000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1162900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1227700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1253300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1151400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1224700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>797700</v>
+      </c>
+      <c r="E72" s="3">
         <v>800600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>867800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>833800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>796800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>829700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>840900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>816700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>786800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>772500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>784500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>756700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>726800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>709600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>674200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>652300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>608600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>600500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>588900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E76" s="3">
         <v>811300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>913100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>873700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>833900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>868600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>880200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>853400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>821200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>804200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>816900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>783200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>747000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>725000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>689600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>671600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>622700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>615100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>613700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44128</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44037</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43946</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43855</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43764</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43673</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43582</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43491</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43400</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43309</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43218</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43127</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>51100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E83" s="3">
         <v>43600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>46600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E89" s="3">
         <v>102400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>111900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>82300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>85200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>191800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-53600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-56100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>142800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-55500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>103700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>149900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>105800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-41600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-58300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-39100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-78400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>305900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-85500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-701200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>522300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-133200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>37800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>65100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>95700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-71000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>25900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-65100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>67700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>318800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-621300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>589100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-95300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>105800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,322 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44128</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44037</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43946</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43764</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43673</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43582</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43491</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43400</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43309</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43127</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42672</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>787600</v>
+      </c>
+      <c r="F8" s="3">
         <v>727500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>750700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>810300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>823900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>814300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>737600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>884100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>884200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>833700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>748600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>848200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>799500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>731400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>655100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>756200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>780200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>786300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>701100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>799200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>705900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>651400</v>
+      </c>
+      <c r="F9" s="3">
         <v>620000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>645500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>658400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>658000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>680200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>633200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>724400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>720400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>701800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>633300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>687200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>642400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>599600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>540600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>600800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>606900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>621500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>561400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>615000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>136200</v>
+      </c>
+      <c r="F10" s="3">
         <v>107500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>105200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>151900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>165900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>134100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>104400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>159700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>163800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>131900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>115300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>161000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>157100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>131800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>114500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>155400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>173300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>164800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>139700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>184200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1004,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1071,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,34 +1142,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>40800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1146,11 +1186,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1161,85 +1201,97 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F15" s="3">
         <v>39100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>43600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>42300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>44100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>45900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>46600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>47400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>47200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>46300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>45900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>45500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>44800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>43400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>42400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>42700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>40200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>37400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>35700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>34500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1312,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>810500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>754600</v>
+      </c>
+      <c r="F17" s="3">
         <v>726200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>753000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>763300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>769900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>832700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>740900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>841600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>832700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>806700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>752700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>801500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>751700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>705200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>643400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>708100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>706700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>720200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>655300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>709700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>47000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>54000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>42500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>51500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>27000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>46700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>47800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>26200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>48100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>73500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>66100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>45800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>89500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1481,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>5900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F21" s="3">
         <v>43100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>42000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>93000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>101300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>28600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>43900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>91300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>102700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>79100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>43000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>95100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>96700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>77200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>54400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>96700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>119800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>108300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>82600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>125000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F22" s="3">
         <v>5900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>12500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>12600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>9700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>9400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>9200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>9100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>46000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>49300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-29700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>30800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>42600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>20500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>38300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>41400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>23700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>44400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>69800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>61500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>37700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>81400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-5700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>15600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>26100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>22800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>14000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>30300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1903,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>33900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>37000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-32400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>24200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>29900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>27800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>29900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>17200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>28800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>43700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>38800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>23700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>51100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>33900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>37000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-32400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>29900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>14300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>27800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>29900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>17200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>28800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>43700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>38800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>23700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>51100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,58 +2116,64 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>2600</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>2600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>-1100</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>-1100</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>32200</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>32200</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2187,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2258,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2329,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-5900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>33900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>37000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-32400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>29900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>14300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-12100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>27800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>29900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>17200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>40100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>28800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>43700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>38800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>23700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>51100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2542,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>33900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>37000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-32400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>29900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>14300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-12100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>27800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>29900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>17200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>40100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>28800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>43700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>38800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>23700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>51100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44128</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44037</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43946</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43764</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43673</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43582</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43491</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43400</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43309</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43218</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43127</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42672</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2720,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2747,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>261900</v>
+      </c>
+      <c r="F41" s="3">
         <v>330600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>643900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>54600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>33600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>128300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>21500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>57900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>84000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>24500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>38600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>19400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>29500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>21700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,309 +2885,339 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1077900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1102800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1048500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1057000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1144300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1156600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1145800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1073600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1262900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1156800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1001900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>844600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1003300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>863500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>763100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>332600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>349600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>377300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>355100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>335500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>329800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>69700</v>
+      </c>
+      <c r="F44" s="3">
         <v>71100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>70800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>70800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>77800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>92600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>98300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>104900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>107400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>105200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>94400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>90800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>87800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>84300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>448500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>490400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>472500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>529100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>481600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>570000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F45" s="3">
         <v>47900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>29000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>38400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>49700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>48600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>31800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>32300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>31100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>37800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>29100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>33300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>30100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>30800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>39700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>28800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>50100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>46700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>41700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>45400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1477700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1498100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1168600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1265500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1306600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1930900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1258300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1411900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1307800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1178500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1096400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1148900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1005300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>936100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>904800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>893400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>938500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>950200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>888300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>966900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F47" s="3">
         <v>16200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>17600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>18600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>19900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>21300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>22700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>26200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>28400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>55200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>32000</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3030,138 +3240,156 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>346200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>343600</v>
+      </c>
+      <c r="F48" s="3">
         <v>340500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>337100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>354200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>385500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>422100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>446200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>463000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>491700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>498400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>424800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>428300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>423700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>416300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>414800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>423300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>422100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>378400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>344100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>337700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>378300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>382500</v>
+      </c>
+      <c r="F49" s="3">
         <v>387100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>391800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>397000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>402000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>407200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>465700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>470900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>476200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>481500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>486900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>492300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>498100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>503900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>493200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>499100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>505300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>513100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>498200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>500300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3453,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3524,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F52" s="3">
         <v>21100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>29000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>29700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>30600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>31400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>24800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>25500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>26400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>24400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>34200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>31700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>25400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>26800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>28200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>36800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>33400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>34300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>35800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>33500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3666,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2204700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2241900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2263000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1944200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2065100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2144700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2812900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2217600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2395600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2328400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2211200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2097500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2133200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1952400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1883000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1841000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1852500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1899300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1876000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1766400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1838400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3768,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,90 +3795,98 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>173200</v>
+      </c>
+      <c r="F57" s="3">
         <v>171000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>159000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>183700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>177300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>194400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>119600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>129500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>140300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>138700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>119500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>134700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>125700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>112200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>92400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>109900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>133000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>119300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>99300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>114700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>66600</v>
+      </c>
+      <c r="F58" s="3">
         <v>61500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>81700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>78100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>22500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>22500</v>
       </c>
       <c r="I58" s="3">
         <v>22500</v>
@@ -3627,306 +3895,336 @@
         <v>22500</v>
       </c>
       <c r="K58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="M58" s="3">
         <v>16900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>31300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>28900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>26500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>24100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>21700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>14400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>18800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>17500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>207600</v>
+      </c>
+      <c r="F59" s="3">
         <v>203500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>207800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>201900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>211500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>211400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>180900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>212800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>199800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>191700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>159900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>169300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>153300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>134800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>140800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>149200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>163900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>155100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>145000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>179700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>447500</v>
+      </c>
+      <c r="F60" s="3">
         <v>436100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>448500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>463700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>411300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>428300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>323000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>364800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>357000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>341700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>285000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>304000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>310300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>275900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>259600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>283100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>318500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>288900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>263200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>312000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>827200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>831200</v>
+      </c>
+      <c r="F61" s="3">
         <v>835200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>501600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>490000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>665500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1363900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>844400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>970200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>932300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>867400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>867600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>867800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>727300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>731700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>733800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>736000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>738300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>811600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>740600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>774500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>182700</v>
+      </c>
+      <c r="F62" s="3">
         <v>181800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>182800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>198200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>194100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>186800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>181600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>180400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>185700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>181000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>140800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>144500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>131500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>128400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>122500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>143800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>170900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>152800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>147600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>138200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4288,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4359,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4430,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1393900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1461400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1453100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1132900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1151900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1270900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1979000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1349000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1515400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1474900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1390000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1293300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1316400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1169200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1136000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1116000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1162900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1227700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1253300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1151400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1224700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4532,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4599,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4670,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4741,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4812,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>798500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>769800</v>
+      </c>
+      <c r="F72" s="3">
         <v>797700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>800600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>867800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>833800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>796800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>829700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>840900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>816700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>786800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>772500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>784500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>756700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>726800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>709600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>674200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>652300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>608600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>600500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>588900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4954,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5025,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5096,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>810800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>780400</v>
+      </c>
+      <c r="F76" s="3">
         <v>810000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>811300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>913100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>873700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>833900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>868600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>880200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>853400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>821200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>804200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>816900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>783200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>747000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>725000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>689600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>671600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>622700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>615100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>613700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5238,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44128</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44037</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43946</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43764</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43673</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43582</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43491</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43400</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43309</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43218</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43127</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42672</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>33900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>37000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-32400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>29900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>14300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-12100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>27800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>29900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>17200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>40100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>28800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>43700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>38800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>23700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>51100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5416,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F83" s="3">
         <v>39100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>43600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>42300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>44100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>45900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>46600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>47400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>47200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>46300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>45900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>45500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>44800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>43400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>42400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>42700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>40200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>37400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>35700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>34500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5554,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5625,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5696,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5767,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5838,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F89" s="3">
         <v>41500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>102400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>111900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>82300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>85200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>191800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-24000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-53600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-56100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>142800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-55500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>12600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>24600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>103700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>56800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>149900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>42300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>105800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-41600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5940,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-31600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-21900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-18700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-38200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-45800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-37200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-47300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-46000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-31800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-56000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-66000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-58300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-36800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-40100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6078,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6149,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-28600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-20400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-15800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-14500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-32500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-38400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-33800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-42600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-39100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-28700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-48100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-59700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-78400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-32900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-38200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6251,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6318,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6389,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6460,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6531,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="F100" s="3">
         <v>305900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-85500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-119000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-701200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>522300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-133200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>37800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>65100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>95700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-15500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-22800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-71000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>25900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-65100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>67700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6673,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="F102" s="3">
         <v>318800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-621300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>589100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>42700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-21000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-95300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>105800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-33400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>59500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-14100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>19300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-10100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>7800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-12100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,335 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44128</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44037</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43946</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43855</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43764</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43673</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43582</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43491</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43400</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43309</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43218</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43127</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>761500</v>
+      </c>
+      <c r="E8" s="3">
         <v>854000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>787600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>727500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>750700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>810300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>823900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>814300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>737600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>884100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>884200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>833700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>748600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>848200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>799500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>731400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>655100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>756200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>780200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>786300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>701100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>799200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>656600</v>
+      </c>
+      <c r="E9" s="3">
         <v>705900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>651400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>620000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>645500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>658400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>658000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>680200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>633200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>724400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>720400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>701800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>633300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>687200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>642400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>599600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>540600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>606900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>621500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>561400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>615000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E10" s="3">
         <v>148100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>136200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>107500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>105200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>151900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>165900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>134100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>104400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>159700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>163800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>115300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>161000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>157100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>131800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>114500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>155400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>173300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>164800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>139700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>184200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,37 +1165,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>40800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1192,8 +1212,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1207,91 +1227,97 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E15" s="3">
         <v>37800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>38500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>39100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>43600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>42300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>44100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>45900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>47400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>47200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>46300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>43400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>42400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>42700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>40200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>37400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>35700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>34500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>757800</v>
+      </c>
+      <c r="E17" s="3">
         <v>810500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>754600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>726200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>753000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>763300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>769900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>832700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>740900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>841600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>832700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>806700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>752700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>801500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>751700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>705200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>643400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>708100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>706700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>720200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>655300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>709700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E18" s="3">
         <v>43500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>47000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>54000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>51500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>48100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>73500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>66100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>45800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>89500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,363 +1516,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4800</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1000</v>
       </c>
       <c r="X20" s="3">
         <v>1000</v>
       </c>
       <c r="Y20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E21" s="3">
         <v>81800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>72500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>93000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>101300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>91300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>102700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>79100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>95100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>96700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>96700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>119800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>108300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>82600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>125000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E22" s="3">
         <v>9100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4700</v>
       </c>
       <c r="H22" s="3">
         <v>4700</v>
       </c>
       <c r="I22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>9700</v>
       </c>
       <c r="U22" s="3">
         <v>9700</v>
       </c>
       <c r="V22" s="3">
+        <v>9700</v>
+      </c>
+      <c r="W22" s="3">
         <v>9400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>34900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>46000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>42600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>69800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>61500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>37700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>81400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>6200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>22800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>30300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>28700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>33900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>29900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>43700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>51100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>28700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>33900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-32400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>29900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>43700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>51100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2136,11 +2197,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>2600</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2148,11 +2209,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2160,11 +2221,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2172,11 +2233,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>32200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,150 +2402,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4800</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-1000</v>
       </c>
       <c r="X32" s="3">
         <v>-1000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>28700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>33900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-32400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>28800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>51100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>28700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>33900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-32400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>28800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>51100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44499</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44128</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44037</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43946</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43855</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43764</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43673</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43582</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43491</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43400</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43309</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43218</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43127</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2835,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>310800</v>
+      </c>
+      <c r="E41" s="3">
         <v>263700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>261900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>330600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>643900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>128300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>84000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,336 +2981,351 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>933200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1077900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1102800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1048500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1057000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1144300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1156600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1145800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1073600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1262900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1156800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1001900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>844600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1003300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>863500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>763100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>332600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>349600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>377300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>355100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>335500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>329800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E44" s="3">
         <v>69900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>69700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>71100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>70800</v>
       </c>
       <c r="H44" s="3">
         <v>70800</v>
       </c>
       <c r="I44" s="3">
+        <v>70800</v>
+      </c>
+      <c r="J44" s="3">
         <v>77800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>98300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>104900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>107400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>105200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>94400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>90800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>87800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>84300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>448500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>490400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>472500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>529100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>481600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>570000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E45" s="3">
         <v>37500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>39700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>50100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>46700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>41700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1356100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1449000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1477700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1498100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1168600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1265500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1306600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1930900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1258300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1411900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1307800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1178500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1096400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1148900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1005300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>936100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>904800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>893400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>938500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>950200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>888300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>966900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E47" s="3">
         <v>15300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32000</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3246,150 +3351,159 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>355900</v>
+      </c>
+      <c r="E48" s="3">
         <v>346200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>343600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>340500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>337100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>354200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>385500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>422100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>446200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>463000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>491700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>498400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>424800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>428300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>423700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>416300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>414800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>423300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>422100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>378400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>344100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>337700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>374300</v>
+      </c>
+      <c r="E49" s="3">
         <v>378300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>382500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>387100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>391800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>397000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>402000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>407200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>465700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>470900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>476200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>481500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>486900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>492300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>498100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>503900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>493200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>499100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>505300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>513100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>498200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>500300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,79 +3647,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E52" s="3">
         <v>15800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>36800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>34300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>35800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>33500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2118200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2204700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2241900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2263000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1944200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2065100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2144700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2812900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2217600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2395600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2328400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2211200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2097500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2133200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1952400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1883000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1841000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1852500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1899300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1876000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1766400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1838400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,99 +3927,103 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E57" s="3">
         <v>173600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>173200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>171000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>159000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>183700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>177300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>194400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>119600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>129500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>140300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>138700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>119500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>134700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>125700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>112200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>92400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>109900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>133000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>119300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>99300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>114700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E58" s="3">
         <v>13100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>66600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>81700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>78100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>22500</v>
       </c>
       <c r="J58" s="3">
         <v>22500</v>
@@ -3901,330 +4035,345 @@
         <v>22500</v>
       </c>
       <c r="M58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="N58" s="3">
         <v>16900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5600</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>31300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>28900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>21700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>18800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E59" s="3">
         <v>206400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>207600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>203500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>207800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>201900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>211500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>211400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>180900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>212800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>199800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>191700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>159900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>169300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>153300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>134800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>140800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>149200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>163900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>155100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>145000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>179700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>381800</v>
+      </c>
+      <c r="E60" s="3">
         <v>393200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>447500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>436100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>448500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>463700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>411300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>428300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>323000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>364800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>357000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>341700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>285000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>304000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>310300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>275900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>259600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>283100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>318500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>288900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>263200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>312000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>823300</v>
+      </c>
+      <c r="E61" s="3">
         <v>827200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>831200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>835200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>501600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>490000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>665500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1363900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>844400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>970200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>932300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>867400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>867600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>867800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>727300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>731700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>733800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>736000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>738300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>811600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>740600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>774500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E62" s="3">
         <v>173500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>182700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>181800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>182800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>198200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>194100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>186800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>181600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>180400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>185700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>181000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>140800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>144500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>131500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>128400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>122500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>143800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>170900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>152800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>147600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>138200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1359700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1393900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1461400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1453100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1132900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1151900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1270900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1979000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1349000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1515400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1474900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1390000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1293300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1316400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1169200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1136000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1116000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1162900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1227700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1253300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1151400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1224700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>748400</v>
+      </c>
+      <c r="E72" s="3">
         <v>798500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>769800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>797700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>800600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>867800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>833800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>796800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>829700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>840900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>816700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>786800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>772500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>784500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>756700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>726800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>709600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>674200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>652300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>608600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>600500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>588900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>758500</v>
+      </c>
+      <c r="E76" s="3">
         <v>810800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>780400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>810000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>811300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>913100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>873700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>833900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>868600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>880200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>853400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>821200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>804200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>816900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>783200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>747000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>725000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>689600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>671600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>622700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>615100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>613700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44499</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44128</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44037</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43946</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43855</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43764</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43673</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43582</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43491</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43400</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43309</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43218</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43127</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>28700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>33900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-32400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>28800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>51100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,79 +5616,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E83" s="3">
         <v>37800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>34500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E89" s="3">
         <v>104300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>102400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>111900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>82300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>85200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>191800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-53600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-56100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>142800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-55500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>103700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>149900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>42300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>105800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-41600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-58300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-36800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-39100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-59700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-78400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +6780,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-58400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-50400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>305900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-85500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-119000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-701200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>522300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-133200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>37800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>65100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>95700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-71000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>25900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-65100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>67700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +6928,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-68700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>318800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-621300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>589100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>42700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-95300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>105800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>59500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,360 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44128</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44037</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43946</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43855</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43764</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43673</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43582</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43491</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43309</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43218</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43127</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>972300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>876300</v>
+      </c>
+      <c r="F8" s="3">
         <v>761500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>854000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>787600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>727500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>750700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>810300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>823900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>814300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>737600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>884100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>884200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>833700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>748600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>848200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>799500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>731400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>655100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>756200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>780200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>786300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>701100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>799200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>745700</v>
+      </c>
+      <c r="F9" s="3">
         <v>656600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>705900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>651400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>620000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>645500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>658400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>658000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>680200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>633200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>724400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>720400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>701800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>633300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>687200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>642400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>599600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>540600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>600800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>606900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>621500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>561400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>615000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F10" s="3">
         <v>104900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>148100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>136200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>107500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>105200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>151900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>165900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>134100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>104400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>159700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>163800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>131900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>115300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>161000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>157100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>131800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>114500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>155400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>173300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>164800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>139700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>184200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1045,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1121,14 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,43 +1201,49 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>40800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1215,11 +1254,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1230,94 +1269,106 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F15" s="3">
         <v>37300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>37800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>38500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>39100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>43600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>42300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>44100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>45900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>46600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>47400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>47200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>46300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>45900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>45500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>44800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>43400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>42400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>42700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>40200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>37400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>35700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>34500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1392,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>906700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>851700</v>
+      </c>
+      <c r="F17" s="3">
         <v>757800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>810500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>754600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>726200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>753000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>763300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>769900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>832700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>740900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>841600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>832700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>806700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>752700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>801500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>751700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>705200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>643400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>708100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>706700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>720200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>655300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>709700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F18" s="3">
         <v>3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>43500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>33000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>47000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>54000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>42500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>51500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>27000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>46700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>47800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>26200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>48100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>73500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>66100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>45800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>89500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,378 +1582,410 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>7700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>5900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>4800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F21" s="3">
         <v>41200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>81800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>72500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>43100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>42000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>93000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>101300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>43900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>91300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>102700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>79100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>43000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>95100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>96700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>77200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>54400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>96700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>119800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>108300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>82600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>125000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8800</v>
+        <v>9300</v>
       </c>
       <c r="E22" s="3">
         <v>9100</v>
       </c>
       <c r="F22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H22" s="3">
         <v>9300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>13100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>12200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>11300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>10200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>9900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>9700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>9700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>9400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>9200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>9100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>34900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>46000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-29700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>30800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>42600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>20500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>38300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>41400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>23700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>44400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>69800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>61500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>37700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>81400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>15600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>26100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>22800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>14000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>30300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2058,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>28700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>18200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>33900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>37000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-32400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>29900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>14300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>27800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>29900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>17200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>28800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>43700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>38800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>23700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>51100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>28700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>18200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>33900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>37000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-32400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>24200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>29900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>14300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>27800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>29900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>17200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>28800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>43700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>38800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>23700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>51100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2298,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2200,50 +2321,50 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>2600</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>2600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>-1100</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>-1100</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>32200</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>32200</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2378,14 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2458,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,156 +2538,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-7700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-5900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-4800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>28700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>18200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>33900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>37000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-32400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>24200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>29900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>14300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>27800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>29900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>17200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>40100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>28800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>43700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>38800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>23700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>51100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2778,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>28700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>18200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>33900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>37000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-32400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>24200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>29900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>14300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>27800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>29900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>17200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>40100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>28800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>43700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>38800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>23700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>51100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44128</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44037</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43946</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43855</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43764</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43673</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43582</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43491</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43400</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43309</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43218</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43127</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2977,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,82 +3007,90 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F41" s="3">
         <v>310800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>263700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>261900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>330600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>22500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>643900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>54600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>128300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>21500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>23900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>57900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>84000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>24500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>38600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>19400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>29500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>21700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,354 +3163,384 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1170700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1043300</v>
+      </c>
+      <c r="F43" s="3">
         <v>933200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1077900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1102800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1048500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1057000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1144300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1156600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1145800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1073600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1262900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1156800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1001900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>844600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1003300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>863500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>763100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>332600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>349600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>377300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>355100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>335500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>329800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>94100</v>
+      </c>
+      <c r="F44" s="3">
         <v>81300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>69900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>69700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>71100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>70800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>70800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>77800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>92600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>98300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>104900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>107400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>105200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>94400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>90800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>87800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>84300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>448500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>490400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>472500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>529100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>481600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>570000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F45" s="3">
         <v>30900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>37500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>43300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>47900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>29000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>38400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>49700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>48600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>31800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>32300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>31100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>37800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>29100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>33300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>30100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>30800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>39700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>28800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>50100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>46700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>41700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>45400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1433800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1370000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1356100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1449000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1477700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1498100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1168600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1265500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1306600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1930900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1258300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1411900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1307800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1178500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1096400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1148900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1005300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>936100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>904800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>893400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>938500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>950200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>888300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>966900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F47" s="3">
         <v>14100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>15300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>16700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>16200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>17600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>18600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>19900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>21300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>22700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>24200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>26200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>28400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>55200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>32000</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3354,156 +3563,174 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>377600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>361100</v>
+      </c>
+      <c r="F48" s="3">
         <v>355900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>346200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>343600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>340500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>337100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>354200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>385500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>422100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>446200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>463000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>491700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>498400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>424800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>428300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>423700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>416300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>414800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>423300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>422100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>378400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>344100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>337700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>366500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>370400</v>
+      </c>
+      <c r="F49" s="3">
         <v>374300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>378300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>382500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>387100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>391800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>397000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>402000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>407200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>465700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>470900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>476200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>481500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>486900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>492300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>498100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>503900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>493200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>499100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>505300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>513100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>498200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>500300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3803,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,82 +3883,94 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F52" s="3">
         <v>17900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>15800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>21400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>21100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>29000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>29700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>30600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>31400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>24800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>25500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>26400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>24400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>34200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>31700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>25400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>26800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>28200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>36800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>33400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>34300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>35800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>33500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +4043,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2206400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2132100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2118200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2204700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2241900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2263000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1944200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2065100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2144700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2812900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2217600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2395600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2328400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2211200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2097500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2133200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1952400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1883000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1841000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1852500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1899300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1876000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1766400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1838400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4157,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,82 +4187,90 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>176400</v>
+      </c>
+      <c r="F57" s="3">
         <v>155900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>173600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>173200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>171000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>159000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>183700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>177300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>194400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>119600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>129500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>140300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>138700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>119500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>134700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>125700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>112200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>92400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>109900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>133000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>119300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>99300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>114700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4011,25 +4278,25 @@
         <v>17500</v>
       </c>
       <c r="E58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>66600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>61500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>81700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>78100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>22500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>22500</v>
       </c>
       <c r="L58" s="3">
         <v>22500</v>
@@ -4038,342 +4305,372 @@
         <v>22500</v>
       </c>
       <c r="N58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="O58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="P58" s="3">
         <v>16900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5600</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>31300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>28900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>26500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>24100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>21700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>14400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>18800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>17500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>227100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>201700</v>
+      </c>
+      <c r="F59" s="3">
         <v>208400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>206400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>207600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>203500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>207800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>201900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>211500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>211400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>180900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>212800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>199800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>191700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>159900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>169300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>153300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>134800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>140800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>149200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>163900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>155100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>145000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>179700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>432100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>395700</v>
+      </c>
+      <c r="F60" s="3">
         <v>381800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>393200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>447500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>436100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>448500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>463700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>411300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>428300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>323000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>364800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>357000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>341700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>285000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>304000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>310300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>275900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>259600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>283100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>318500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>288900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>263200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>312000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>815300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>819300</v>
+      </c>
+      <c r="F61" s="3">
         <v>823300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>827200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>831200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>835200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>501600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>490000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>665500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1363900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>844400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>970200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>932300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>867400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>867600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>867800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>727300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>731700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>733800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>736000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>738300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>811600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>740600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>774500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>158800</v>
+      </c>
+      <c r="F62" s="3">
         <v>154600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>173500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>182700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>181800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>182800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>198200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>194100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>186800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>181600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>180400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>185700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>181000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>140800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>144500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>131500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>128400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>122500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>143800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>170900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>152800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>147600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>138200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4743,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4823,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4903,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1409400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1373800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1359700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1393900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1461400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1453100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1132900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1151900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1270900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1979000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1349000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1515400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1474900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1390000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1293300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1316400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1169200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1136000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1116000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1162900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1227700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1253300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1151400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1224700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +5017,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +5093,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5173,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5253,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5333,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>784300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>747100</v>
+      </c>
+      <c r="F72" s="3">
         <v>748400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>798500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>769800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>797700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>800600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>867800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>833800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>796800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>829700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>840900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>816700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>786800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>772500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>784500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>756700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>726800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>709600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>674200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>652300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>608600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>600500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>588900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5493,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5573,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5653,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>758300</v>
+      </c>
+      <c r="F76" s="3">
         <v>758500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>810800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>780400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>810000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>811300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>913100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>873700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>833900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>868600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>880200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>853400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>821200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>804200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>816900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>783200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>747000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>725000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>689600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>671600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>622700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>615100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>613700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5813,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44128</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44037</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43946</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43855</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43764</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43673</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43582</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43491</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43400</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43309</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43218</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43127</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>28700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>18200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>33900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>37000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-32400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>24200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>29900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>14300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>27800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>29900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>17200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>40100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>28800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>43700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>38800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>23700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>51100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,82 +6012,90 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F83" s="3">
         <v>37300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>37800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>38500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>39100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>43600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>42300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>44100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>45900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>46600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>47400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>47200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>46300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>45900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>45500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>44800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>43400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>42400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>42700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>40200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>37400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>35700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>34500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +6168,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6248,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6328,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6408,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6488,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F89" s="3">
         <v>145500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>104300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>17300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>41500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>102400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>111900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>82300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>85200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>191800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-24000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-53600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-56100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>142800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-55500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>12600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>24600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>103700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>56800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>149900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>42300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>105800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-41600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6602,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-43600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-45100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-36700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-31600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-21900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-20700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-38200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-45800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-47300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-46000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-34500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-31800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-56000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-66000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-58300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-36800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-40100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6758,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6838,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-43400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-44100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-35500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-28600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-20400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-18300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-14500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-32500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-38400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-33800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-42600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-39100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-45800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-28700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-48100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-59700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-78400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6952,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6561,8 +7028,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +7108,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +7188,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,82 +7268,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-55100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-58400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-50400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>305900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-85500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-119000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-701200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>522300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-133200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>37800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>65100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>95700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-15500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-22800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-71000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>25900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-65100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>67700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6931,78 +7428,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="F102" s="3">
         <v>47100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-68700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>318800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-621300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>589100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>42700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-95300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>105800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-33400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-26100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>59500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-14100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>19300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-10100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>7800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-12100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,386 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44128</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44037</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43946</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43764</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43673</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43491</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43400</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43309</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43218</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43127</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>917500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1042400</v>
+      </c>
+      <c r="F8" s="3">
         <v>972300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>876300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>761500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>854000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>787600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>727500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>750700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>810300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>823900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>814300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>737600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>884100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>884200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>833700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>748600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>848200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>799500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>731400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>655100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>756200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>780200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>786300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>701100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>799200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>765700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>850900</v>
+      </c>
+      <c r="F9" s="3">
         <v>798000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>745700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>656600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>705900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>651400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>620000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>645500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>658400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>658000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>680200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>633200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>724400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>720400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>701800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>633300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>687200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>642400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>599600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>540600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>600800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>606900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>621500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>561400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>615000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>191500</v>
+      </c>
+      <c r="F10" s="3">
         <v>174300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>130600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>104900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>148100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>136200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>107500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>105200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>151900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>165900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>134100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>104400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>159700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>163800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>131900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>115300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>161000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>157100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>131800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>114500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>155400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>173300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>164800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>139700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>184200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1073,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1155,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,49 +1241,55 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>40800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1260,11 +1300,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1275,100 +1315,112 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F15" s="3">
         <v>35300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>36600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>37300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>37800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>38500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>39100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>43600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>42300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>44100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>45900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>46600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>47400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>47200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>46300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>45900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>45500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>44800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>43400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>42400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>42700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>40200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>37400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>35700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>34500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1446,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>874400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>965100</v>
+      </c>
+      <c r="F17" s="3">
         <v>906700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>851700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>757800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>810500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>754600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>726200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>753000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>763300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>769900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>832700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>740900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>841600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>832700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>806700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>752700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>801500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>751700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>705200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>643400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>708100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>706700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>720200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>655300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>709700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F18" s="3">
         <v>65600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>24600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>43500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>33000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>47000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>54000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-18400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>42500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>51500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>27000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>46700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>47800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>26200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>11700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>48100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>73500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>66100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>45800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>89500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,408 +1650,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>7700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>4800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>115200</v>
+      </c>
+      <c r="F21" s="3">
         <v>103500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>66000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>41200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>81800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>72500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>43100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>42000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>93000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>101300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>28600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>43900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>91300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>102700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>79100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>43000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>95100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>96700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>77200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>54400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>96700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>119800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>108300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>82600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>125000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F22" s="3">
         <v>9300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8800</v>
       </c>
       <c r="G22" s="3">
         <v>9100</v>
       </c>
       <c r="H22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J22" s="3">
         <v>9300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>7900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>13100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>12200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>12400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>11300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>10400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>10200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>9900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>9700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>9700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>9400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>9200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>9100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F23" s="3">
         <v>58900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>20200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>34900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>24700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>46000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>49300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-29700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-15300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>30800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>42600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>20500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-15400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>38300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>41400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>23700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>44400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>69800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>61500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>37700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>81400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>6500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>12700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>10500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>6500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-5700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>15600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>26100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>22800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>14000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>30300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2162,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F26" s="3">
         <v>43900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>28700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>18200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>33900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>37000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-32400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-10100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>24200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>29900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>14300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-12100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>27800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>29900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>17200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>7900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>28800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>43700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>38800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>23700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>51100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F27" s="3">
         <v>43900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>19500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>28700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>18200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>33900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>37000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-32400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-10100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>24200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>29900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>14300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-12100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>27800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>29900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>17200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>7900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>28800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>43700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>38800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>23700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>51100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2420,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2327,50 +2449,50 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>2600</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>2600</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>-1100</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>-1100</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>32200</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
+      <c r="X29" s="3">
+        <v>32200</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2384,8 +2506,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2592,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2678,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-7700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F33" s="3">
         <v>43900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>19500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>28700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>18200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>33900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>37000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-32400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>24200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>29900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>14300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-12100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>27800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>29900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>17200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>40100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>28800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>43700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>38800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>23700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>51100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2936,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F35" s="3">
         <v>43900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>19500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>28700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>18200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>33900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>37000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-32400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>24200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>29900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>14300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-12100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>27800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>29900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>17200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>40100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>28800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>43700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>38800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>23700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>51100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44128</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44037</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43946</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43764</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43673</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43491</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43400</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43309</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43218</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43127</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3149,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3181,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>65300</v>
+      </c>
+      <c r="F41" s="3">
         <v>120300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>185600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>310800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>263700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>261900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>330600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>22500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>643900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>54600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>33600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>128300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>21500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>23900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>57900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>84000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>24500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>38600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>19400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>29500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>21700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,384 +3349,414 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1114900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1297800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1170700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1043300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>933200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1077900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1102800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1048500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1057000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1144300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1156600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1145800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1073600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1262900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1156800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1001900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>844600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1003300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>863500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>763100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>332600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>349600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>377300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>355100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>335500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>329800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F44" s="3">
         <v>98900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>94100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>81300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>69900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>69700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>71100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>70800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>70800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>77800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>92600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>98300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>104900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>107400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>105200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>94400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>90800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>87800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>84300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>448500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>490400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>472500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>529100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>481600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>570000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F45" s="3">
         <v>43900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>47000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>30900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>37500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>43300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>47900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>29000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>38400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>49700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>48600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>31800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>32300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>31100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>37800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>29100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>33300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>30100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>30800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>39700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>28800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>50100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>46700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>41700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>45400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1492700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1433800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1370000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1356100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1449000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1477700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1498100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1168600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1265500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1306600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1930900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1258300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1411900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1307800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1178500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1096400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1148900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1005300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>936100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>904800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>893400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>938500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>950200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>888300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>966900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F47" s="3">
         <v>11000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>12500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>14100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>15300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>16700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>16200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>17600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>18600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>19900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>21300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>22700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>24200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>26200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>28400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>55200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>32000</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3569,168 +3779,186 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>435100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>403300</v>
+      </c>
+      <c r="F48" s="3">
         <v>377600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>361100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>355900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>346200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>343600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>340500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>337100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>354200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>385500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>422100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>446200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>463000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>491700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>498400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>424800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>428300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>423700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>416300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>414800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>423300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>422100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>378400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>344100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>337700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>359100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>362600</v>
+      </c>
+      <c r="F49" s="3">
         <v>366500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>370400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>374300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>378300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>382500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>387100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>391800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>397000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>402000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>407200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>465700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>470900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>476200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>481500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>486900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>492300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>498100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>503900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>493200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>499100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>505300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>513100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>498200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>500300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +4037,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4123,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F52" s="3">
         <v>17500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>18100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>17900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>15800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>21400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>21100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>29000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>29700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>30600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>31400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>24800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>25500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>26400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>24400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>34200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>31700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>25400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>26800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>28200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>36800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>33400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>34300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>35800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>33500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4295,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2313300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2305300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2206400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2132100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2118200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2204700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2241900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2263000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1944200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2065100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2144700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2812900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2217600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2395600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2328400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2211200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2097500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2133200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1952400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1883000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1841000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1852500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1899300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1876000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1766400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1838400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4417,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,88 +4449,96 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>201000</v>
+      </c>
+      <c r="F57" s="3">
         <v>187600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>176400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>155900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>173600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>173200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>171000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>159000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>183700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>177300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>194400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>119600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>129500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>140300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>138700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>119500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>134700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>125700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>112200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>92400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>109900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>133000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>119300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>99300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>114700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4284,25 +4552,25 @@
         <v>17500</v>
       </c>
       <c r="G58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>66600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>61500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>81700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>78100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>22500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>22500</v>
       </c>
       <c r="N58" s="3">
         <v>22500</v>
@@ -4311,366 +4579,396 @@
         <v>22500</v>
       </c>
       <c r="P58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="R58" s="3">
         <v>16900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>11300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5600</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>31300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>28900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>26500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>24100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>21700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>14400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>18800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>17500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>252600</v>
+      </c>
+      <c r="F59" s="3">
         <v>227100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>201700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>208400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>206400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>207600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>203500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>207800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>201900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>211500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>211400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>180900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>212800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>199800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>191700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>159900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>169300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>153300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>134800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>140800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>149200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>163900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>155100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>145000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>179700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>469600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>471100</v>
+      </c>
+      <c r="F60" s="3">
         <v>432100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>395700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>381800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>393200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>447500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>436100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>448500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>463700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>411300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>428300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>323000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>364800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>357000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>341700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>285000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>304000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>310300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>275900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>259600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>283100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>318500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>288900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>263200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>312000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>807400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>811400</v>
+      </c>
+      <c r="F61" s="3">
         <v>815300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>819300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>823300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>827200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>831200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>835200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>501600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>490000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>665500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1363900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>844400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>970200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>932300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>867400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>867600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>867800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>727300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>731700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>733800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>736000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>738300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>811600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>740600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>774500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>164200</v>
+      </c>
+      <c r="F62" s="3">
         <v>161900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>158800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>154600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>173500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>182700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>181800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>182800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>198200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>194100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>186800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>181600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>180400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>185700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>181000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>140800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>144500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>131500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>128400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>122500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>143800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>170900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>152800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>147600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>138200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +5047,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +5133,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5219,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1444500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1446700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1409400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1373800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1359700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1393900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1461400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1453100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1132900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1151900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1270900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1979000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1349000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1515400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1474900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1390000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1293300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1316400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1169200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1136000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1116000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1162900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1227700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1253300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1151400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1224700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5341,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5423,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5509,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5595,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5681,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>855100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>838300</v>
+      </c>
+      <c r="F72" s="3">
         <v>784300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>747100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>748400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>798500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>769800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>797700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>800600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>867800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>833800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>796800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>829700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>840900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>816700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>786800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>772500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>784500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>756700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>726800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>709600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>674200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>652300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>608600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>600500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>588900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5853,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5939,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +6025,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>868800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>858600</v>
+      </c>
+      <c r="F76" s="3">
         <v>797000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>758300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>758500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>810800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>780400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>810000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>811300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>913100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>873700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>833900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>868600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>880200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>853400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>821200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>804200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>816900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>783200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>747000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>725000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>689600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>671600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>622700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>615100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>613700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6197,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44128</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44037</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43946</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43764</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43673</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43491</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43400</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43309</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43218</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43127</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F81" s="3">
         <v>43900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>19500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>28700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>18200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>33900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>37000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-32400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>24200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>29900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>14300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-12100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>27800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>29900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>17200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>40100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>28800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>43700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>38800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>23700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>51100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6410,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F83" s="3">
         <v>35300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>36600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>37300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>37800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>38500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>39100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>43600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>42300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>44100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>45900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>46600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>47400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>47200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>46300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>45900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>45500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>44800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>43400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>42400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>42700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>40200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>37400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>35700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>34500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6578,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6664,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6750,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6836,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6922,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>246200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-64900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>145500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>104300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>41500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>102400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>111900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>82300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>85200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>191800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-24000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-56100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>142800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-55500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>12600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>24600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>103700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>56800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>149900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>42300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>105800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-41600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +7044,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-42500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-38400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-43600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-45100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-36700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-31600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-21900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-20700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-18700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-17900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-45800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-37200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-47300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-46000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-34500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-31800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-56000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-58300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-36800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-40100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +7212,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7298,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-39100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-33000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-43400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-44100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-35500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-20400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-18300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-38400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-33800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-42600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-39100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-45800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-28700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-48100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-59700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-78400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-32900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-38200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7420,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7502,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7588,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7674,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,88 +7760,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-14200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-27200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-55100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-58400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-50400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>305900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-85500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-119000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-701200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>522300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-133200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>37800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>65100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>95700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-6900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-4800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-15500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-22800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>25900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-65100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>67700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7932,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-65300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-125200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>47100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-68700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>318800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-10500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-621300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>589100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>42700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-95300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>105800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-33400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-26100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>59500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-14100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>19300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>7800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-12100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>14500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>DY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,411 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44128</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43946</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43764</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43673</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43491</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43400</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43309</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43218</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43127</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1041500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1045500</v>
+      </c>
+      <c r="F8" s="3">
         <v>917500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1042400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>972300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>876300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>761500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>854000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>787600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>727500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>750700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>810300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>823900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>814300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>737600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>884100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>884200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>833700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>748600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>848200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>799500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>731400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>655100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>756200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>780200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>786300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>701100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>799200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>789200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>830400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>853400</v>
+      </c>
+      <c r="F9" s="3">
         <v>765700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>850900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>798000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>745700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>656600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>705900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>651400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>620000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>645500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>658400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>658000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>680200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>633200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>724400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>720400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>701800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>633300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>687200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>642400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>599600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>540600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>600800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>606900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>621500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>561400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>615000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AF9" s="3">
         <v>605900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>192100</v>
+      </c>
+      <c r="F10" s="3">
         <v>151800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>191500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>174300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>130600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>104900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>148100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>136200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>107500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>105200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>151900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>165900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>134100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>104400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>159700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>163800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>131900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>115300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>161000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>157100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>131800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>114500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>155400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>173300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>164800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>139700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>184200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1100,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1188,14 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,13 +1280,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1261,41 +1300,41 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>40800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1306,11 +1345,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1321,106 +1360,118 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F15" s="3">
         <v>36700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>35500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>35300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>36600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>37300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>37800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>38500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>39100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>43600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>42300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>44100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>45900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>46600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>47400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>47200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>46300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>45900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>45500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>44800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>43400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>42400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>42700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>40200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>37400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>35700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>34500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AF15" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1499,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>953200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>973000</v>
+      </c>
+      <c r="F17" s="3">
         <v>874400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>965100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>906700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>851700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>757800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>810500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>754600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>726200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>753000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>763300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>769900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>832700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>740900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>841600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>832700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>806700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>752700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>801500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>751700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>705200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>643400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>708100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>706700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>720200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>655300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>709700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>704100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F18" s="3">
         <v>43100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>77300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>65600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>24600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>43500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>33000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>47000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>54000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-18400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>42500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>51500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>27000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>46700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>47800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>26200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>11700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>48100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>73500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>66100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>45800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>89500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,438 +1717,470 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>7700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>5900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>4800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>1000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>114700</v>
+      </c>
+      <c r="F21" s="3">
         <v>80200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>115200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>103500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>66000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>41200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>81800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>72500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>43100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>42000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>93000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>101300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>28600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>43900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>91300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>102700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>79100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>43000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>95100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>96700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>77200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>54400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>96700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>119800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>108300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>82600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>125000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>124700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F22" s="3">
         <v>11600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>10600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>9300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8800</v>
       </c>
       <c r="I22" s="3">
         <v>9100</v>
       </c>
       <c r="J22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>12500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>13100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>12900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>12200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>12400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>11300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>10400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>10200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>9900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>9700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>9700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>9400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>9200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>9100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AF22" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F23" s="3">
         <v>31900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>69200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>58900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>20200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>34900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>46000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>49300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-29700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>30800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>42600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>20500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-15400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>38300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>41400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>23700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>44400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>69800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>61500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>37700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>81400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F24" s="3">
         <v>7100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>15100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>12700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>10500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>6500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>15600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>26100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>22800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>14000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>30300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AF24" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2265,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F26" s="3">
         <v>24800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>54000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>43900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>19500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>28700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>33900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>37000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-32400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>24200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>29900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>14300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-12100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>27800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>29900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>17200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>7900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>28800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>43700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>38800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>23700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>51100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F27" s="3">
         <v>24800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>54000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>43900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>19500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>28700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>33900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>37000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-32400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>24200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>29900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>14300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-12100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>27800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>29900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>17200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>7900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>28800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>43700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>38800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>23700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>51100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2541,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2455,50 +2576,50 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>2600</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>2600</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>-1100</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>-1100</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>32200</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>32200</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2512,8 +2633,14 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2725,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,180 +2817,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-7700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F33" s="3">
         <v>24800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>54000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>43900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>19500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>28700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>33900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>37000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-32400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>24200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>29900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>14300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-12100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>27800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>29900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>17200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>40100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>28800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>43700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>38800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>23700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>51100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3093,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F35" s="3">
         <v>24800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>54000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>43900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>19500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>28700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>33900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>37000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-32400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>24200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>29900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>14300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-12100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>27800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>29900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>17200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>40100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>28800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>43700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>38800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>23700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>51100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44128</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44037</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43946</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43673</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43491</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43400</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43309</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43218</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43127</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3320,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3354,102 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>71400</v>
+      </c>
+      <c r="F41" s="3">
         <v>224200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>65300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>120300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>185600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>310800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>263700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>261900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>330600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>12000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>22500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>643900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>54600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>11800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>33600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>128300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>21500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>23900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>57900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>84000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>24500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>38600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>19400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>29500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>21700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,414 +3534,444 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1303300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1242800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1114900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1297800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1170700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1043300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>933200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1077900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1102800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1048500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1057000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1144300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1156600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1145800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1073600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1262900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1156800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1001900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>844600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1003300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>863500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>763100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>332600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>349600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>377300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>355100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>335500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>329800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="3">
         <v>328000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>115700</v>
+      </c>
+      <c r="F44" s="3">
         <v>115000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>107100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>98900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>94100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>81300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>69900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>69700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>71100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>70800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>70800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>77800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>92600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>98300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>104900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>107400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>105200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>94400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>90800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>87800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>84300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>448500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>490400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>472500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>529100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>481600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>570000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AF44" s="3">
         <v>450600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F45" s="3">
         <v>38600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>42800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>43900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>47000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>30900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>37500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>43300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>47900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>29000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>38400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>49700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>48600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>31800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>32300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>31100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>37800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>29100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>33300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>30100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>30800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>39700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>28800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>50100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>46700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>41700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>45400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1555200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1483800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1492700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1513000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1433800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1370000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1356100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1449000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1477700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1498100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1168600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1265500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1306600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1930900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1258300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1411900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1307800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1178500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1096400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1148900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1005300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>936100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>904800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>893400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>938500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>950200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>888300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>966900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>851200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F47" s="3">
         <v>8300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>9600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>11000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>12500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>14100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>15300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>16700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>16200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>17600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>18600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>19900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>21300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>22700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>24200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>26200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>28400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>55200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>32000</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3785,180 +3994,198 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>447100</v>
+      </c>
+      <c r="F48" s="3">
         <v>435100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>403300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>377600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>361100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>355900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>346200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>343600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>340500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>337100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>354200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>385500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>422100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>446200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>463000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>491700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>498400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>424800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>428300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>423700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>416300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>414800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>423300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>422100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>378400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>344100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>337700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AF48" s="3">
         <v>326700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>352100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>355600</v>
+      </c>
+      <c r="F49" s="3">
         <v>359100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>362600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>366500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>370400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>374300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>378300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>382500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>387100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>391800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>397000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>402000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>407200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>465700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>470900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>476200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>481500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>486900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>492300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>498100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>503900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>493200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>499100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>505300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>513100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>498200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>500300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4270,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,94 +4362,106 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F52" s="3">
         <v>18000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>17500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>18100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>17900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>15800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>21400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>21100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>29000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>29700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>30600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>31400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>24800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>25500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>26400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>24400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>34200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>31700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>25400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>26800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>28200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>36800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>33400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>34300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>35800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>33500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AF52" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4546,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2395600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2311700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2313300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2305300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2206400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2132100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2118200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2204700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2241900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2263000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1944200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2065100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2144700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2812900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2217600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2395600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2328400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2211200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2097500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2133200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1952400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1883000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1841000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1852500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1899300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1876000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1766400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1838400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>1719700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4676,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,94 +4710,102 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>204800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>196200</v>
+      </c>
+      <c r="F57" s="3">
         <v>207700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>201000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>187600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>176400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>155900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>173600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>173200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>171000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>159000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>183700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>177300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>194400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>119600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>129500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>140300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>138700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>119500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>134700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>125700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>112200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>92400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>109900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>133000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>119300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>99300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>114700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>115500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4558,25 +4825,25 @@
         <v>17500</v>
       </c>
       <c r="I58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>66600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>61500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>81700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>78100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>22500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>22500</v>
       </c>
       <c r="P58" s="3">
         <v>22500</v>
@@ -4585,390 +4852,420 @@
         <v>22500</v>
       </c>
       <c r="R58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="T58" s="3">
         <v>16900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>11300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5600</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>31300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>28900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>26500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>24100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>21700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>14400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>18800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>17500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AF58" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>237200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>219400</v>
+      </c>
+      <c r="F59" s="3">
         <v>244300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>252600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>227100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>201700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>208400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>206400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>207600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>203500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>207800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>201900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>211500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>211400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>180900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>212800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>199800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>191700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>159900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>169300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>153300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>134800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>140800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>149200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>163900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>155100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>145000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>179700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>459400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>433100</v>
+      </c>
+      <c r="F60" s="3">
         <v>469600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>471100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>432100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>395700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>381800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>393200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>447500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>436100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>448500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>463700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>411300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>428300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>323000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>364800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>357000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>341700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>285000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>304000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>310300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>275900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>259600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>283100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>318500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>288900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>263200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>312000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>322600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>799400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>803400</v>
+      </c>
+      <c r="F61" s="3">
         <v>807400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>811400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>815300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>819300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>823300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>827200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>831200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>835200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>501600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>490000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>665500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1363900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>844400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>970200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>932300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>867400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>867600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>867800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>727300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>731700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>733800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>736000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>738300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>811600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>740600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>774500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AF61" s="3">
         <v>706200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>177800</v>
+      </c>
+      <c r="F62" s="3">
         <v>167600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>164200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>161900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>158800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>154600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>173500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>182700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>181800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>182800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>198200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>194100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>186800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>181600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>180400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>185700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>181000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>140800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>144500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>131500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>128400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>122500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>143800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>170900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>152800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>147600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>138200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AF62" s="3">
         <v>133600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5350,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5442,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5534,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1431600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1414300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1444500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1446700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1409400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1373800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1359700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1393900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1461400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1453100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1132900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1151900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1270900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1979000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1349000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1515400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1474900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1390000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1293300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1316400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1169200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1136000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1116000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1162900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1227700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1253300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1151400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1224700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>1162400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5664,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5752,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5844,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5936,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +6028,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>942800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>882600</v>
+      </c>
+      <c r="F72" s="3">
         <v>855100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>838300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>784300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>747100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>748400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>798500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>769800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>797700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>800600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>867800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>833800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>796800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>829700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>840900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>816700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>786800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>772500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>784500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>756700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>726800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>709600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>674200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>652300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>608600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>600500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>588900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>537900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6212,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6304,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6396,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>964000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>897400</v>
+      </c>
+      <c r="F76" s="3">
         <v>868800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>858600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>797000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>758300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>758500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>810800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>780400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>810000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>811300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>913100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>873700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>833900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>868600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>880200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>853400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>821200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>804200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>816900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>783200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>747000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>725000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>689600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>671600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>622700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>615100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>613700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>557300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6580,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44128</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44037</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43946</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43764</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43673</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43491</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43400</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43309</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43218</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43127</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F81" s="3">
         <v>24800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>54000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>43900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>19500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>28700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>33900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>37000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-32400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>24200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>29900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>14300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-12100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>27800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>29900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>17200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>40100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>28800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>43700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>38800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>23700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>51100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,94 +6807,102 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F83" s="3">
         <v>36700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>35500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>35300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>36600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>37300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>37800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>38500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>39100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>43600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>42300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>44100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>45900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>46600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>47400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>47200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>46300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>45900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>45500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>44800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>43400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>42400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>42700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>40200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>37400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>35700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>34500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AF83" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6987,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +7079,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +7171,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7263,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7355,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="F89" s="3">
         <v>246200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-64900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>145500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>104300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>41500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>102400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>111900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>82300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>85200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>191800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-24000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-53600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-56100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>142800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-55500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>12600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>24600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>103700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>56800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>149900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>42300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>105800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-41600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>182500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,94 +7485,102 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-65200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-54800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-42500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-38400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-43600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-45100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-36700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-21900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-17900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-38200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-45800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-37200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-47300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-46000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-34500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-31800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-66000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-58300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-36800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-40100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AF91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7665,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7757,106 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-62600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-49200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-39100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-33000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-43400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-44100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-35500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-28600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-20400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-18300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-14500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-32500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-38400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-33800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-42600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-39100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-45800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-28700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-48100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-59700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-78400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-32900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-38200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>-151600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,8 +7887,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7508,8 +7975,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +8067,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +8159,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,94 +8251,106 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-24700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-14200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-27200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-55100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-58400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-50400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>305900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-85500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-119000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-701200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>522300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-133200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>37800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>65100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>95700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-22800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-71000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>25900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-65100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>67700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>-16500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7938,90 +8435,102 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-152800</v>
+      </c>
+      <c r="F102" s="3">
         <v>158900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-55000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-65300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-125200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>47100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-68700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>318800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-10500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-621300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>589100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>42700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-21000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-95300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>105800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-33400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-26100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>59500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-14100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>19300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-10100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>7800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-12100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>14500</v>
       </c>
     </row>
